--- a/CAT-Exam-Evaluation-System/dataset/data.xlsx
+++ b/CAT-Exam-Evaluation-System/dataset/data.xlsx
@@ -3,20 +3,16 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\CAT-Exam-Evaluation-System\CAT-Exam-Evaluation-System\dataset\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{108968CD-E229-44C6-8433-4AD9CA78B037}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{489F789D-0783-4012-9497-D8302DC92AA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Students names" sheetId="1" r:id="rId1"/>
+    <sheet name="Students" sheetId="1" r:id="rId1"/>
     <sheet name="Answers " sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
+  <oleSize ref="A1:L7"/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId6" roundtripDataChecksum="m6poU5cTb7qGxz55VXqt0lz7iiKGEkb/2FSc+hwEhZ8="/>
@@ -399,7 +395,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="74" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1605,7 +1603,7 @@
   </sheetPr>
   <dimension ref="A1:B1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="74" workbookViewId="0"/>
+    <sheetView zoomScale="74" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>

--- a/CAT-Exam-Evaluation-System/dataset/data.xlsx
+++ b/CAT-Exam-Evaluation-System/dataset/data.xlsx
@@ -3,16 +3,20 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{489F789D-0783-4012-9497-D8302DC92AA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\CAT-Exam-Evaluation-System\CAT-Exam-Evaluation-System\dataset\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBDE7CF6-5BD6-4570-9D3D-DFFE06BAAA7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4580" yWindow="2840" windowWidth="14400" windowHeight="7360" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Students" sheetId="1" r:id="rId1"/>
-    <sheet name="Answers " sheetId="2" r:id="rId2"/>
+    <sheet name="Answers" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:L7"/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId6" roundtripDataChecksum="m6poU5cTb7qGxz55VXqt0lz7iiKGEkb/2FSc+hwEhZ8="/>
@@ -395,9 +399,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="74" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
-    </sheetView>
+    <sheetView zoomScale="74" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1603,7 +1605,7 @@
   </sheetPr>
   <dimension ref="A1:B1000"/>
   <sheetViews>
-    <sheetView zoomScale="74" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="74" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>

--- a/CAT-Exam-Evaluation-System/dataset/data.xlsx
+++ b/CAT-Exam-Evaluation-System/dataset/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\CAT-Exam-Evaluation-System\CAT-Exam-Evaluation-System\dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBDE7CF6-5BD6-4570-9D3D-DFFE06BAAA7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB9C6DFA-0307-43C3-84CB-EC53F1CB2E68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4580" yWindow="2840" windowWidth="14400" windowHeight="7360" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -121,10 +121,10 @@
     <t>c</t>
   </si>
   <si>
-    <t xml:space="preserve">Key Answers </t>
-  </si>
-  <si>
     <t>Sl No</t>
+  </si>
+  <si>
+    <t>Key Answers</t>
   </si>
 </sst>
 </file>
@@ -180,8 +180,8 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1605,7 +1605,9 @@
   </sheetPr>
   <dimension ref="A1:B1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="74" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="74" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1613,11 +1615,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="14" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>32</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="14" x14ac:dyDescent="0.3">

--- a/CAT-Exam-Evaluation-System/dataset/data.xlsx
+++ b/CAT-Exam-Evaluation-System/dataset/data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\CAT-Exam-Evaluation-System\CAT-Exam-Evaluation-System\dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8544F64E-F4DB-4FEF-A441-434A82CEFAB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C092F78-35C0-450F-82C2-D319780EFBA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,21 +16,12 @@
     <sheet name="Students" sheetId="1" r:id="rId1"/>
     <sheet name="Answers" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="59">
-  <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>STUDENT NAME</t>
-  </si>
-  <si>
-    <t>ANSWERS</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="54">
   <si>
     <t>Anjali</t>
   </si>
@@ -98,113 +89,107 @@
     <t>Nitish</t>
   </si>
   <si>
+    <t>Rakshitha</t>
+  </si>
+  <si>
+    <t>-dbac-dcba</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yashwanth </t>
+  </si>
+  <si>
+    <t>b-a-cd-bac</t>
+  </si>
+  <si>
+    <t>Shreyas</t>
+  </si>
+  <si>
+    <t>abcd--bacd</t>
+  </si>
+  <si>
+    <t>Vikas</t>
+  </si>
+  <si>
+    <t>-d-cadbcab</t>
+  </si>
+  <si>
+    <t>Sanjay</t>
+  </si>
+  <si>
+    <t>cda--b--bc</t>
+  </si>
+  <si>
+    <t>Nitin</t>
+  </si>
+  <si>
+    <t>aabddbc-a-</t>
+  </si>
+  <si>
+    <t>Ajay</t>
+  </si>
+  <si>
+    <t>bcb-da--ac</t>
+  </si>
+  <si>
+    <t>Yashas</t>
+  </si>
+  <si>
+    <t>dc-abcdb-a</t>
+  </si>
+  <si>
+    <t>Ricky</t>
+  </si>
+  <si>
+    <t>-abaccd-bd</t>
+  </si>
+  <si>
+    <t>James</t>
+  </si>
+  <si>
+    <t>c-ba--adbc</t>
+  </si>
+  <si>
+    <t>Manjeeth</t>
+  </si>
+  <si>
+    <t>c--adba-cb</t>
+  </si>
+  <si>
+    <t>Nirmala</t>
+  </si>
+  <si>
+    <t>b-cad-a--b</t>
+  </si>
+  <si>
+    <t>Harshith</t>
+  </si>
+  <si>
+    <t>dc-ba--cab</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>aa--cdcba-</t>
+  </si>
+  <si>
     <t>caa-dc-cb-</t>
-  </si>
-  <si>
-    <t>Rakshitha</t>
-  </si>
-  <si>
-    <t>-dbac-dcba</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yashwanth </t>
-  </si>
-  <si>
-    <t>b-a-cd-bac</t>
-  </si>
-  <si>
-    <t>Shreyas</t>
-  </si>
-  <si>
-    <t>abcd--bacd</t>
-  </si>
-  <si>
-    <t>Vikas</t>
-  </si>
-  <si>
-    <t>-d-cadbcab</t>
-  </si>
-  <si>
-    <t>Sanjay</t>
-  </si>
-  <si>
-    <t>cda--b--bc</t>
-  </si>
-  <si>
-    <t>Nitin</t>
-  </si>
-  <si>
-    <t>aabddbc-a-</t>
-  </si>
-  <si>
-    <t>Ajay</t>
-  </si>
-  <si>
-    <t>bcb-da--ac</t>
-  </si>
-  <si>
-    <t>Yashas</t>
-  </si>
-  <si>
-    <t>dc-abcdb-a</t>
-  </si>
-  <si>
-    <t>Ricky</t>
-  </si>
-  <si>
-    <t>-abaccd-bd</t>
-  </si>
-  <si>
-    <t>James</t>
-  </si>
-  <si>
-    <t>c-ba--adbc</t>
-  </si>
-  <si>
-    <t>Manjeeth</t>
-  </si>
-  <si>
-    <t>c--adba-cb</t>
-  </si>
-  <si>
-    <t>Nirmala</t>
-  </si>
-  <si>
-    <t>b-cad-a--b</t>
-  </si>
-  <si>
-    <t>Harshith</t>
-  </si>
-  <si>
-    <t>dc-ba--cab</t>
-  </si>
-  <si>
-    <t>Sl No</t>
-  </si>
-  <si>
-    <t>Key Answers</t>
-  </si>
-  <si>
-    <t>a</t>
-  </si>
-  <si>
-    <t>b</t>
-  </si>
-  <si>
-    <t>d</t>
-  </si>
-  <si>
-    <t>c</t>
-  </si>
-  <si>
-    <t>aa--cdcba-</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -221,11 +206,6 @@
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="2">
@@ -248,7 +228,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -256,7 +236,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -474,9 +453,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
@@ -488,291 +465,281 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="14" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="1">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
       <c r="C1" s="2" t="s">
-        <v>2</v>
+        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="14" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>3</v>
-      </c>
       <c r="C2" s="2" t="s">
-        <v>58</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="14" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>4</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="14" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>6</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="14" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>8</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="14" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>10</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="14" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>12</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="14" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>14</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="14" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>16</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="14" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>18</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="14" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B11" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="2" t="s">
         <v>20</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="14" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>23</v>
+        <v>53</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="14" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="14" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="14" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="14" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="14" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="14" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="14" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="14" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="1">
-        <v>25</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
+        <v>47</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="27" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="28" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="29" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1765,93 +1732,86 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="14" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
-        <v>52</v>
+      <c r="A1" s="1">
+        <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="14" x14ac:dyDescent="0.3">
-      <c r="A11" s="1">
-        <v>10</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="14" x14ac:dyDescent="0.3"/>
     <row r="21" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="22" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
